--- a/各区账号.xlsx
+++ b/各区账号.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>区无线_劳文倩</t>
   </si>
@@ -174,6 +174,14 @@
   </si>
   <si>
     <t>18278137491</t>
+  </si>
+  <si>
+    <t>18578952024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18977154011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -526,7 +534,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -594,16 +602,16 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
-        <v>18578952024</v>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
-        <v>18977154011</v>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
